--- a/processed_data/participants_cleaned/participants_weltentdecker-zurich.xlsx
+++ b/processed_data/participants_cleaned/participants_weltentdecker-zurich.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krista/Repos/gaze-following-analysis/processed_data/participants_cleaned/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA78F09-2A2A-F74F-99E9-22BA0ADE5504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="266">
   <si>
     <t>lab</t>
   </si>
@@ -409,9 +415,6 @@
   </si>
   <si>
     <t>goes to daycare since age of 11 months, 3 days per week, 10h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              </t>
   </si>
   <si>
     <t>mother talked once</t>
@@ -825,8 +828,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -963,76 +966,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="67">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1357,15 +1368,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="AX12" sqref="AX12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="3" customWidth="1"/>
@@ -1554,7 +1565,7 @@
         <v>46</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>47</v>
@@ -1581,10 +1592,10 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -1599,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
@@ -1722,13 +1733,13 @@
         <v>69</v>
       </c>
       <c r="AV2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW2" t="s">
         <v>58</v>
       </c>
       <c r="AX2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY2">
         <v>1700</v>
@@ -1748,10 +1759,10 @@
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -1766,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -1889,7 +1900,7 @@
         <v>69</v>
       </c>
       <c r="AV3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW3" t="s">
         <v>58</v>
@@ -1915,10 +1926,10 @@
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -1933,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
         <v>76</v>
@@ -1954,7 +1965,7 @@
         <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O4">
         <v>25</v>
@@ -2056,13 +2067,13 @@
         <v>69</v>
       </c>
       <c r="AV4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW4" t="s">
         <v>58</v>
       </c>
       <c r="AX4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AY4">
         <v>1130</v>
@@ -2082,10 +2093,10 @@
     </row>
     <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -2100,13 +2111,13 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" t="s">
         <v>76</v>
@@ -2223,7 +2234,7 @@
         <v>69</v>
       </c>
       <c r="AV5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW5" t="s">
         <v>58</v>
@@ -2249,10 +2260,10 @@
     </row>
     <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -2267,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
         <v>125</v>
@@ -2288,7 +2299,7 @@
         <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O6">
         <v>33</v>
@@ -2390,7 +2401,7 @@
         <v>69</v>
       </c>
       <c r="AV6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW6" t="s">
         <v>58</v>
@@ -2416,10 +2427,10 @@
     </row>
     <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -2434,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -2557,7 +2568,7 @@
         <v>69</v>
       </c>
       <c r="AV7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW7" t="s">
         <v>58</v>
@@ -2583,10 +2594,10 @@
     </row>
     <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -2601,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2724,7 +2735,7 @@
         <v>69</v>
       </c>
       <c r="AV8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW8" t="s">
         <v>58</v>
@@ -2750,10 +2761,10 @@
     </row>
     <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -2768,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
@@ -2891,7 +2902,7 @@
         <v>69</v>
       </c>
       <c r="AV9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW9" t="s">
         <v>58</v>
@@ -2917,10 +2928,10 @@
     </row>
     <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -2935,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -3058,7 +3069,7 @@
         <v>69</v>
       </c>
       <c r="AV10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW10" t="s">
         <v>58</v>
@@ -3084,10 +3095,10 @@
     </row>
     <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -3102,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -3225,7 +3236,7 @@
         <v>69</v>
       </c>
       <c r="AV11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW11" t="s">
         <v>58</v>
@@ -3251,10 +3262,10 @@
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -3269,13 +3280,13 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
@@ -3392,7 +3403,7 @@
         <v>69</v>
       </c>
       <c r="AV12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW12" t="s">
         <v>58</v>
@@ -3418,10 +3429,10 @@
     </row>
     <row r="13" spans="1:57">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -3436,13 +3447,13 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" t="s">
         <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J13" t="s">
         <v>76</v>
@@ -3559,7 +3570,7 @@
         <v>107</v>
       </c>
       <c r="AV13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW13" t="s">
         <v>58</v>
@@ -3585,10 +3596,10 @@
     </row>
     <row r="14" spans="1:57">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -3603,13 +3614,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
         <v>76</v>
@@ -3726,7 +3737,7 @@
         <v>69</v>
       </c>
       <c r="AV14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW14" t="s">
         <v>58</v>
@@ -3752,10 +3763,10 @@
     </row>
     <row r="15" spans="1:57">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -3770,13 +3781,13 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
         <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J15" t="s">
         <v>76</v>
@@ -3893,7 +3904,7 @@
         <v>69</v>
       </c>
       <c r="AV15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW15" t="s">
         <v>58</v>
@@ -3919,10 +3930,10 @@
     </row>
     <row r="16" spans="1:57">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -3937,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -4060,13 +4071,13 @@
         <v>69</v>
       </c>
       <c r="AV16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW16" t="s">
         <v>58</v>
       </c>
       <c r="AX16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY16">
         <v>1000</v>
@@ -4086,10 +4097,10 @@
     </row>
     <row r="17" spans="1:55">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
@@ -4104,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -4125,7 +4136,7 @@
         <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O17">
         <v>25</v>
@@ -4227,13 +4238,13 @@
         <v>107</v>
       </c>
       <c r="AV17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW17" t="s">
         <v>58</v>
       </c>
       <c r="AX17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY17">
         <v>1030</v>
@@ -4253,10 +4264,10 @@
     </row>
     <row r="18" spans="1:55">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -4271,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -4394,13 +4405,13 @@
         <v>69</v>
       </c>
       <c r="AV18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW18" t="s">
         <v>58</v>
       </c>
       <c r="AX18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY18">
         <v>1000</v>
@@ -4420,10 +4431,10 @@
     </row>
     <row r="19" spans="1:55" ht="16" customHeight="1">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -4438,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -4459,7 +4470,7 @@
         <v>73</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O19">
         <v>27</v>
@@ -4561,7 +4572,7 @@
         <v>69</v>
       </c>
       <c r="AV19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW19" t="s">
         <v>58</v>
@@ -4587,10 +4598,10 @@
     </row>
     <row r="20" spans="1:55">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -4605,7 +4616,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -4728,7 +4739,7 @@
         <v>69</v>
       </c>
       <c r="AV20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW20" t="s">
         <v>58</v>
@@ -4754,10 +4765,10 @@
     </row>
     <row r="21" spans="1:55">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
@@ -4772,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -4895,7 +4906,7 @@
         <v>69</v>
       </c>
       <c r="AV21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW21" t="s">
         <v>58</v>
@@ -4921,10 +4932,10 @@
     </row>
     <row r="22" spans="1:55">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
         <v>54</v>
@@ -4939,7 +4950,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -5062,7 +5073,7 @@
         <v>69</v>
       </c>
       <c r="AV22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW22" t="s">
         <v>58</v>
@@ -5088,10 +5099,10 @@
     </row>
     <row r="23" spans="1:55">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -5106,13 +5117,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
         <v>76</v>
@@ -5229,7 +5240,7 @@
         <v>69</v>
       </c>
       <c r="AV23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW23" t="s">
         <v>58</v>
@@ -5255,10 +5266,10 @@
     </row>
     <row r="24" spans="1:55">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -5273,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -5396,7 +5407,7 @@
         <v>69</v>
       </c>
       <c r="AV24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW24" t="s">
         <v>58</v>
@@ -5422,10 +5433,10 @@
     </row>
     <row r="25" spans="1:55">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -5440,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -5563,7 +5574,7 @@
         <v>69</v>
       </c>
       <c r="AV25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW25" t="s">
         <v>58</v>
@@ -5589,10 +5600,10 @@
     </row>
     <row r="26" spans="1:55">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -5607,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -5730,7 +5741,7 @@
         <v>69</v>
       </c>
       <c r="AV26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW26" t="s">
         <v>58</v>
@@ -5756,10 +5767,10 @@
     </row>
     <row r="27" spans="1:55">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -5774,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -5891,13 +5902,13 @@
         <v>56</v>
       </c>
       <c r="AT27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AU27" t="s">
         <v>69</v>
       </c>
       <c r="AV27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW27" t="s">
         <v>58</v>
@@ -5923,10 +5934,10 @@
     </row>
     <row r="28" spans="1:55">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -5941,13 +5952,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J28" t="s">
         <v>76</v>
@@ -5962,7 +5973,7 @@
         <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -6064,7 +6075,7 @@
         <v>69</v>
       </c>
       <c r="AV28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW28" t="s">
         <v>58</v>
@@ -6090,10 +6101,10 @@
     </row>
     <row r="29" spans="1:55">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -6108,13 +6119,13 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
         <v>76</v>
@@ -6231,7 +6242,7 @@
         <v>69</v>
       </c>
       <c r="AV29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW29" t="s">
         <v>58</v>
@@ -6257,10 +6268,10 @@
     </row>
     <row r="30" spans="1:55">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
@@ -6275,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -6290,7 +6301,7 @@
         <v>68</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M30">
         <v>70</v>
@@ -6398,7 +6409,7 @@
         <v>69</v>
       </c>
       <c r="AV30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW30" t="s">
         <v>58</v>
@@ -6424,10 +6435,10 @@
     </row>
     <row r="31" spans="1:55">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -6442,13 +6453,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
         <v>76</v>
@@ -6565,7 +6576,7 @@
         <v>69</v>
       </c>
       <c r="AV31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW31" t="s">
         <v>58</v>
@@ -6591,10 +6602,10 @@
     </row>
     <row r="32" spans="1:55">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -6609,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -6732,7 +6743,7 @@
         <v>69</v>
       </c>
       <c r="AV32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW32" t="s">
         <v>58</v>
@@ -6756,12 +6767,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:55">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
         <v>54</v>
@@ -6776,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -6899,7 +6910,7 @@
         <v>69</v>
       </c>
       <c r="AV33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW33" t="s">
         <v>58</v>
@@ -6923,12 +6934,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:56">
+    <row r="34" spans="1:55">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -6943,13 +6954,13 @@
         <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J34" t="s">
         <v>76</v>
@@ -7066,13 +7077,13 @@
         <v>69</v>
       </c>
       <c r="AV34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW34" t="s">
         <v>58</v>
       </c>
       <c r="AX34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AY34">
         <v>1000</v>
@@ -7090,12 +7101,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:56">
+    <row r="35" spans="1:55">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
         <v>54</v>
@@ -7110,13 +7121,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J35" t="s">
         <v>76</v>
@@ -7233,7 +7244,7 @@
         <v>69</v>
       </c>
       <c r="AV35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW35" t="s">
         <v>58</v>
@@ -7257,12 +7268,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:56">
+    <row r="36" spans="1:55">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
         <v>54</v>
@@ -7277,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -7400,7 +7411,7 @@
         <v>69</v>
       </c>
       <c r="AV36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW36" t="s">
         <v>58</v>
@@ -7424,12 +7435,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:55">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s">
         <v>54</v>
@@ -7444,13 +7455,13 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J37" t="s">
         <v>76</v>
@@ -7567,13 +7578,13 @@
         <v>69</v>
       </c>
       <c r="AV37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW37" t="s">
         <v>58</v>
       </c>
       <c r="AX37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY37">
         <v>900</v>
@@ -7591,12 +7602,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:56">
+    <row r="38" spans="1:55">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
         <v>54</v>
@@ -7611,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -7734,22 +7745,22 @@
         <v>107</v>
       </c>
       <c r="AV38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW38" t="s">
         <v>58</v>
       </c>
       <c r="AX38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY38">
         <v>930</v>
       </c>
       <c r="AZ38" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA38" t="s">
         <v>143</v>
-      </c>
-      <c r="BA38" t="s">
-        <v>144</v>
       </c>
       <c r="BB38">
         <v>104290</v>
@@ -7758,12 +7769,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:56">
+    <row r="39" spans="1:55">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -7778,13 +7789,13 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H39" t="s">
         <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J39" t="s">
         <v>76</v>
@@ -7799,7 +7810,7 @@
         <v>75</v>
       </c>
       <c r="N39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O39">
         <v>25</v>
@@ -7901,13 +7912,13 @@
         <v>69</v>
       </c>
       <c r="AV39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW39" t="s">
         <v>58</v>
       </c>
       <c r="AX39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AY39">
         <v>900</v>
@@ -7925,12 +7936,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:55">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>54</v>
@@ -7945,13 +7956,13 @@
         <v>4</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>95</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J40" t="s">
         <v>76</v>
@@ -7960,7 +7971,7 @@
         <v>68</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M40" s="3">
         <v>50</v>
@@ -7972,7 +7983,7 @@
         <v>47</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q40" s="3">
         <v>3</v>
@@ -7984,7 +7995,7 @@
         <v>56</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U40" t="s">
         <v>114</v>
@@ -8068,7 +8079,7 @@
         <v>69</v>
       </c>
       <c r="AV40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW40" s="3" t="s">
         <v>58</v>
@@ -8080,7 +8091,7 @@
         <v>1400</v>
       </c>
       <c r="AZ40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BA40" s="3" t="s">
         <v>67</v>
@@ -8092,12 +8103,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:55">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
@@ -8112,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -8127,7 +8138,7 @@
         <v>68</v>
       </c>
       <c r="L41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M41">
         <v>57</v>
@@ -8235,7 +8246,7 @@
         <v>107</v>
       </c>
       <c r="AV41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW41" t="s">
         <v>58</v>
@@ -8259,12 +8270,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:56">
+    <row r="42" spans="1:55">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -8279,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -8300,7 +8311,7 @@
         <v>60</v>
       </c>
       <c r="N42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O42">
         <v>37</v>
@@ -8402,22 +8413,22 @@
         <v>69</v>
       </c>
       <c r="AV42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW42" t="s">
         <v>58</v>
       </c>
       <c r="AX42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AY42">
         <v>1400</v>
       </c>
       <c r="AZ42" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA42" t="s">
         <v>143</v>
-      </c>
-      <c r="BA42" t="s">
-        <v>144</v>
       </c>
       <c r="BB42">
         <v>293782</v>
@@ -8426,12 +8437,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:56">
+    <row r="43" spans="1:55">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
@@ -8446,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -8569,7 +8580,7 @@
         <v>69</v>
       </c>
       <c r="AV43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW43" t="s">
         <v>58</v>
@@ -8593,12 +8604,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:56">
+    <row r="44" spans="1:55">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
@@ -8613,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -8736,13 +8747,13 @@
         <v>69</v>
       </c>
       <c r="AV44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW44" t="s">
         <v>58</v>
       </c>
       <c r="AX44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY44">
         <v>1500</v>
@@ -8759,16 +8770,13 @@
       <c r="BC44">
         <v>78</v>
       </c>
-      <c r="BD44" t="s">
-        <v>130</v>
-      </c>
     </row>
-    <row r="45" spans="1:56">
+    <row r="45" spans="1:55">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
@@ -8783,13 +8791,13 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s">
         <v>95</v>
       </c>
       <c r="I45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J45" t="s">
         <v>76</v>
@@ -8906,7 +8914,7 @@
         <v>69</v>
       </c>
       <c r="AV45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW45" t="s">
         <v>58</v>
@@ -8918,10 +8926,10 @@
         <v>1400</v>
       </c>
       <c r="AZ45" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA45" t="s">
         <v>143</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>144</v>
       </c>
       <c r="BB45">
         <v>285362</v>
@@ -8930,12 +8938,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:56">
+    <row r="46" spans="1:55">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
         <v>54</v>
@@ -8950,13 +8958,13 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J46" t="s">
         <v>76</v>
@@ -8971,13 +8979,13 @@
         <v>42</v>
       </c>
       <c r="N46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O46">
         <v>31</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>24</v>
@@ -9073,22 +9081,22 @@
         <v>69</v>
       </c>
       <c r="AV46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW46" t="s">
         <v>58</v>
       </c>
       <c r="AX46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AY46">
         <v>1130</v>
       </c>
       <c r="AZ46" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA46" t="s">
         <v>143</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>144</v>
       </c>
       <c r="BB46">
         <v>273033</v>
@@ -9097,12 +9105,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:56">
+    <row r="47" spans="1:55">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -9117,13 +9125,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J47" t="s">
         <v>76</v>
@@ -9240,7 +9248,7 @@
         <v>69</v>
       </c>
       <c r="AV47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW47" t="s">
         <v>58</v>
@@ -9264,12 +9272,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:56">
+    <row r="48" spans="1:55">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
@@ -9284,13 +9292,13 @@
         <v>4</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J48" t="s">
         <v>76</v>
@@ -9407,7 +9415,7 @@
         <v>69</v>
       </c>
       <c r="AV48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW48" t="s">
         <v>58</v>
@@ -9433,10 +9441,10 @@
     </row>
     <row r="49" spans="1:55">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
         <v>54</v>
@@ -9451,13 +9459,13 @@
         <v>3</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J49" t="s">
         <v>76</v>
@@ -9574,13 +9582,13 @@
         <v>69</v>
       </c>
       <c r="AV49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW49" t="s">
         <v>58</v>
       </c>
       <c r="AX49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AY49">
         <v>1000</v>
@@ -9600,10 +9608,10 @@
     </row>
     <row r="50" spans="1:55">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s">
         <v>54</v>
@@ -9618,13 +9626,13 @@
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J50" t="s">
         <v>76</v>
@@ -9741,7 +9749,7 @@
         <v>69</v>
       </c>
       <c r="AV50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW50" t="s">
         <v>58</v>
@@ -9753,10 +9761,10 @@
         <v>930</v>
       </c>
       <c r="AZ50" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA50" t="s">
         <v>143</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>144</v>
       </c>
       <c r="BB50">
         <v>357597</v>
@@ -9767,10 +9775,10 @@
     </row>
     <row r="51" spans="1:55">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
@@ -9785,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -9908,7 +9916,7 @@
         <v>69</v>
       </c>
       <c r="AV51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW51" t="s">
         <v>58</v>
@@ -9934,10 +9942,10 @@
     </row>
     <row r="52" spans="1:55">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>54</v>
@@ -9952,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>56</v>
@@ -10075,7 +10083,7 @@
         <v>107</v>
       </c>
       <c r="AV52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW52" s="3" t="s">
         <v>58</v>
@@ -10101,10 +10109,10 @@
     </row>
     <row r="53" spans="1:55">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -10119,13 +10127,13 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
       </c>
       <c r="I53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J53" t="s">
         <v>76</v>
@@ -10242,22 +10250,22 @@
         <v>69</v>
       </c>
       <c r="AV53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW53" t="s">
         <v>58</v>
       </c>
       <c r="AX53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AY53">
         <v>1000</v>
       </c>
       <c r="AZ53" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA53" t="s">
         <v>143</v>
-      </c>
-      <c r="BA53" t="s">
-        <v>144</v>
       </c>
       <c r="BB53">
         <v>343121</v>
@@ -10268,10 +10276,10 @@
     </row>
     <row r="54" spans="1:55">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -10286,13 +10294,13 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
       </c>
       <c r="I54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J54" t="s">
         <v>76</v>
@@ -10409,13 +10417,13 @@
         <v>69</v>
       </c>
       <c r="AV54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW54" t="s">
         <v>58</v>
       </c>
       <c r="AX54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY54">
         <v>1430</v>
@@ -10435,10 +10443,10 @@
     </row>
     <row r="55" spans="1:55">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
@@ -10453,13 +10461,13 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H55" t="s">
         <v>95</v>
       </c>
       <c r="I55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J55" t="s">
         <v>76</v>
@@ -10576,7 +10584,7 @@
         <v>69</v>
       </c>
       <c r="AV55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW55" t="s">
         <v>58</v>
@@ -10602,10 +10610,10 @@
     </row>
     <row r="56" spans="1:55">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -10620,13 +10628,13 @@
         <v>3</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
       </c>
       <c r="I56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
         <v>76</v>
@@ -10641,7 +10649,7 @@
         <v>72</v>
       </c>
       <c r="N56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56">
         <v>28</v>
@@ -10743,7 +10751,7 @@
         <v>69</v>
       </c>
       <c r="AV56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW56" t="s">
         <v>58</v>
@@ -10755,10 +10763,10 @@
         <v>1530</v>
       </c>
       <c r="AZ56" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA56" t="s">
         <v>143</v>
-      </c>
-      <c r="BA56" t="s">
-        <v>144</v>
       </c>
       <c r="BB56">
         <v>235779</v>
@@ -10769,10 +10777,10 @@
     </row>
     <row r="57" spans="1:55">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
@@ -10787,7 +10795,7 @@
         <v>4</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H57" t="s">
         <v>56</v>
@@ -10910,7 +10918,7 @@
         <v>69</v>
       </c>
       <c r="AV57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW57" t="s">
         <v>58</v>
@@ -10936,10 +10944,10 @@
     </row>
     <row r="58" spans="1:55">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>54</v>
@@ -10954,13 +10962,13 @@
         <v>4</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J58" t="s">
         <v>76</v>
@@ -10969,7 +10977,7 @@
         <v>68</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M58" s="3">
         <v>61</v>
@@ -11077,7 +11085,7 @@
         <v>69</v>
       </c>
       <c r="AV58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW58" s="3" t="s">
         <v>58</v>
@@ -11089,7 +11097,7 @@
         <v>1630</v>
       </c>
       <c r="AZ58" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BA58" s="3" t="s">
         <v>67</v>
@@ -11103,10 +11111,10 @@
     </row>
     <row r="59" spans="1:55">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
         <v>54</v>
@@ -11121,7 +11129,7 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H59" t="s">
         <v>56</v>
@@ -11244,13 +11252,13 @@
         <v>69</v>
       </c>
       <c r="AV59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW59" t="s">
         <v>58</v>
       </c>
       <c r="AX59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AY59">
         <v>1600</v>
@@ -11270,10 +11278,10 @@
     </row>
     <row r="60" spans="1:55">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
         <v>54</v>
@@ -11288,7 +11296,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H60" t="s">
         <v>56</v>
@@ -11411,7 +11419,7 @@
         <v>69</v>
       </c>
       <c r="AV60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW60" t="s">
         <v>58</v>
@@ -11437,10 +11445,10 @@
     </row>
     <row r="61" spans="1:55">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>54</v>
@@ -11455,7 +11463,7 @@
         <v>4</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>56</v>
@@ -11470,7 +11478,7 @@
         <v>68</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M61" s="3">
         <v>60</v>
@@ -11578,19 +11586,19 @@
         <v>107</v>
       </c>
       <c r="AV61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW61" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AX61" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AY61" s="3">
         <v>1500</v>
       </c>
       <c r="AZ61" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BA61" s="3" t="s">
         <v>67</v>
@@ -11604,10 +11612,10 @@
     </row>
     <row r="62" spans="1:55">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
@@ -11622,13 +11630,13 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J62" t="s">
         <v>76</v>
@@ -11637,7 +11645,7 @@
         <v>68</v>
       </c>
       <c r="L62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M62">
         <v>54</v>
@@ -11661,7 +11669,7 @@
         <v>56</v>
       </c>
       <c r="T62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U62" t="s">
         <v>114</v>
@@ -11745,22 +11753,22 @@
         <v>69</v>
       </c>
       <c r="AV62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW62" t="s">
         <v>58</v>
       </c>
       <c r="AX62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AY62">
         <v>1000</v>
       </c>
       <c r="AZ62" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA62" t="s">
         <v>143</v>
-      </c>
-      <c r="BA62" t="s">
-        <v>144</v>
       </c>
       <c r="BB62">
         <v>214143</v>
@@ -11771,10 +11779,10 @@
     </row>
     <row r="63" spans="1:55">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>54</v>
@@ -11789,7 +11797,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>56</v>
@@ -11810,7 +11818,7 @@
         <v>64</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O63" s="3">
         <v>36</v>
@@ -11912,19 +11920,19 @@
         <v>69</v>
       </c>
       <c r="AV63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW63" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AX63" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AY63" s="3">
         <v>1300</v>
       </c>
       <c r="AZ63" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BA63" s="3" t="s">
         <v>67</v>
@@ -11938,10 +11946,10 @@
     </row>
     <row r="64" spans="1:55">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>54</v>
@@ -11956,7 +11964,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>56</v>
@@ -11971,7 +11979,7 @@
         <v>68</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M64" s="3">
         <v>73</v>
@@ -11983,7 +11991,7 @@
         <v>25</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q64" s="3">
         <v>2</v>
@@ -12079,19 +12087,19 @@
         <v>107</v>
       </c>
       <c r="AV64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW64" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AX64" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AY64" s="3">
         <v>1300</v>
       </c>
       <c r="AZ64" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BA64" s="3" t="s">
         <v>67</v>
@@ -12105,10 +12113,10 @@
     </row>
     <row r="65" spans="1:55">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
         <v>54</v>
@@ -12123,13 +12131,13 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H65" t="s">
         <v>95</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J65" t="s">
         <v>76</v>
@@ -12144,7 +12152,7 @@
         <v>66</v>
       </c>
       <c r="N65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O65">
         <v>29</v>
@@ -12156,7 +12164,7 @@
         <v>3</v>
       </c>
       <c r="R65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S65">
         <v>2</v>
@@ -12246,7 +12254,7 @@
         <v>69</v>
       </c>
       <c r="AV65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW65" t="s">
         <v>58</v>
@@ -12258,7 +12266,7 @@
         <v>1030</v>
       </c>
       <c r="AZ65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BA65" t="s">
         <v>67</v>
